--- a/DataTables/Characters/IttoTables.xlsx
+++ b/DataTables/Characters/IttoTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GenshinCode\GenshinIndex\DataTables\Characters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2BD19A-F8F3-4B92-A275-D35A3565A5C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA258E8-87B9-4E1C-A736-0D41ED0BAFE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="5175" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="6" r:id="rId1"/>
@@ -1065,7 +1065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EA1C57-3921-476D-A8D1-199BC3F3FCFE}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1386,8 +1386,8 @@
   </sheetPr>
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/DataTables/Characters/IttoTables.xlsx
+++ b/DataTables/Characters/IttoTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GenshinCode\GenshinIndex\DataTables\Characters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA258E8-87B9-4E1C-A736-0D41ED0BAFE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD0C715-B7D1-4285-B38F-55543D7E4C45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="5175" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="7605" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="6" r:id="rId1"/>
@@ -1387,7 +1387,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
